--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bank_mini/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5ED0DBC-324E-F342-966B-C8362ED1C129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F410CF-CD5D-134C-B058-068D6C593D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -143,13 +143,175 @@
   </si>
   <si>
     <t>XII DKV</t>
+  </si>
+  <si>
+    <t>slug_kelas</t>
+  </si>
+  <si>
+    <t>xakl12324</t>
+  </si>
+  <si>
+    <t>xakl22324</t>
+  </si>
+  <si>
+    <t>xpm2324</t>
+  </si>
+  <si>
+    <t>xmplb12324</t>
+  </si>
+  <si>
+    <t>xmplb22324</t>
+  </si>
+  <si>
+    <t>xtjkt12324</t>
+  </si>
+  <si>
+    <t>xtjkt22324</t>
+  </si>
+  <si>
+    <t>xtjkt32324</t>
+  </si>
+  <si>
+    <t>xdkv2324</t>
+  </si>
+  <si>
+    <t>xiakl12324</t>
+  </si>
+  <si>
+    <t>xiakl22324</t>
+  </si>
+  <si>
+    <t>xipm2324</t>
+  </si>
+  <si>
+    <t>ximplb12324</t>
+  </si>
+  <si>
+    <t>ximplb22324</t>
+  </si>
+  <si>
+    <t>xitjkt12324</t>
+  </si>
+  <si>
+    <t>xitjkt22324</t>
+  </si>
+  <si>
+    <t>xitjkt32324</t>
+  </si>
+  <si>
+    <t>xidkv2324</t>
+  </si>
+  <si>
+    <t>xiiakl12324</t>
+  </si>
+  <si>
+    <t>xiiakl22324</t>
+  </si>
+  <si>
+    <t>xiipm2324</t>
+  </si>
+  <si>
+    <t>xiimplb12324</t>
+  </si>
+  <si>
+    <t>xiimplb22324</t>
+  </si>
+  <si>
+    <t>xiitjkt12324</t>
+  </si>
+  <si>
+    <t>xiitjkt22324</t>
+  </si>
+  <si>
+    <t>xiitjkt32324</t>
+  </si>
+  <si>
+    <t>xakl12425</t>
+  </si>
+  <si>
+    <t>xakl22425</t>
+  </si>
+  <si>
+    <t>xpm2425</t>
+  </si>
+  <si>
+    <t>xmplb12425</t>
+  </si>
+  <si>
+    <t>xmplb22425</t>
+  </si>
+  <si>
+    <t>xtjkt12425</t>
+  </si>
+  <si>
+    <t>xtjkt22425</t>
+  </si>
+  <si>
+    <t>xtjkt32425</t>
+  </si>
+  <si>
+    <t>xdkv2425</t>
+  </si>
+  <si>
+    <t>xiakl12425</t>
+  </si>
+  <si>
+    <t>xiakl22425</t>
+  </si>
+  <si>
+    <t>xipm2425</t>
+  </si>
+  <si>
+    <t>ximplb12425</t>
+  </si>
+  <si>
+    <t>ximplb22425</t>
+  </si>
+  <si>
+    <t>xitjkt12425</t>
+  </si>
+  <si>
+    <t>xitjkt22425</t>
+  </si>
+  <si>
+    <t>xitjkt32425</t>
+  </si>
+  <si>
+    <t>xidkv2425</t>
+  </si>
+  <si>
+    <t>xiiakl12425</t>
+  </si>
+  <si>
+    <t>xiiakl22425</t>
+  </si>
+  <si>
+    <t>xiipm2425</t>
+  </si>
+  <si>
+    <t>xiimplb12425</t>
+  </si>
+  <si>
+    <t>xiimplb22425</t>
+  </si>
+  <si>
+    <t>xiitjkt12425</t>
+  </si>
+  <si>
+    <t>xiitjkt22425</t>
+  </si>
+  <si>
+    <t>xiitjkt32425</t>
+  </si>
+  <si>
+    <t>xiidkv2425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,6 +339,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -203,7 +372,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,19 +687,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664577AF-41FC-0C49-BD7B-86162BAED619}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,9 +713,12 @@
       <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>10012324</v>
       </c>
       <c r="B2" t="s">
@@ -557,9 +730,12 @@
       <c r="D2">
         <v>2324</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+      <c r="E2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>10022324</v>
       </c>
       <c r="B3" t="s">
@@ -571,9 +747,12 @@
       <c r="D3">
         <v>2324</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>10032324</v>
       </c>
       <c r="B4" t="s">
@@ -585,9 +764,12 @@
       <c r="D4">
         <v>2324</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>10042324</v>
       </c>
       <c r="B5" t="s">
@@ -599,9 +781,12 @@
       <c r="D5">
         <v>2324</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>10052324</v>
       </c>
       <c r="B6" t="s">
@@ -613,9 +798,12 @@
       <c r="D6">
         <v>2324</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>10062324</v>
       </c>
       <c r="B7" t="s">
@@ -627,9 +815,12 @@
       <c r="D7">
         <v>2324</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>10072324</v>
       </c>
       <c r="B8" t="s">
@@ -641,9 +832,12 @@
       <c r="D8">
         <v>2324</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>10082324</v>
       </c>
       <c r="B9" t="s">
@@ -655,9 +849,12 @@
       <c r="D9">
         <v>2324</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>10092324</v>
       </c>
       <c r="B10" t="s">
@@ -669,9 +866,12 @@
       <c r="D10">
         <v>2324</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10102324</v>
       </c>
       <c r="B11" t="s">
@@ -683,9 +883,12 @@
       <c r="D11">
         <v>2324</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10112324</v>
       </c>
       <c r="B12" t="s">
@@ -697,9 +900,12 @@
       <c r="D12">
         <v>2324</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10122324</v>
       </c>
       <c r="B13" t="s">
@@ -711,9 +917,12 @@
       <c r="D13">
         <v>2324</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>10132324</v>
       </c>
       <c r="B14" t="s">
@@ -725,9 +934,12 @@
       <c r="D14">
         <v>2324</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>10142324</v>
       </c>
       <c r="B15" t="s">
@@ -739,9 +951,12 @@
       <c r="D15">
         <v>2324</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>10152324</v>
       </c>
       <c r="B16" t="s">
@@ -753,9 +968,12 @@
       <c r="D16">
         <v>2324</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>10162324</v>
       </c>
       <c r="B17" t="s">
@@ -767,9 +985,12 @@
       <c r="D17">
         <v>2324</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>10172324</v>
       </c>
       <c r="B18" t="s">
@@ -781,9 +1002,12 @@
       <c r="D18">
         <v>2324</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>10182324</v>
       </c>
       <c r="B19" t="s">
@@ -795,9 +1019,12 @@
       <c r="D19">
         <v>2324</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>10192324</v>
       </c>
       <c r="B20" t="s">
@@ -809,9 +1036,12 @@
       <c r="D20">
         <v>2324</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>10202324</v>
       </c>
       <c r="B21" t="s">
@@ -823,9 +1053,12 @@
       <c r="D21">
         <v>2324</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>10212324</v>
       </c>
       <c r="B22" t="s">
@@ -837,9 +1070,12 @@
       <c r="D22">
         <v>2324</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>10222324</v>
       </c>
       <c r="B23" t="s">
@@ -851,9 +1087,12 @@
       <c r="D23">
         <v>2324</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>10232324</v>
       </c>
       <c r="B24" t="s">
@@ -865,9 +1104,12 @@
       <c r="D24">
         <v>2324</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>10242324</v>
       </c>
       <c r="B25" t="s">
@@ -879,9 +1121,12 @@
       <c r="D25">
         <v>2324</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>10252324</v>
       </c>
       <c r="B26" t="s">
@@ -893,9 +1138,12 @@
       <c r="D26">
         <v>2324</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>10262324</v>
       </c>
       <c r="B27" t="s">
@@ -907,9 +1155,12 @@
       <c r="D27">
         <v>2324</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>10272425</v>
       </c>
       <c r="B28" t="s">
@@ -921,9 +1172,12 @@
       <c r="D28">
         <v>2425</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>10282425</v>
       </c>
       <c r="B29" t="s">
@@ -935,9 +1189,12 @@
       <c r="D29">
         <v>2425</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>10292425</v>
       </c>
       <c r="B30" t="s">
@@ -949,9 +1206,12 @@
       <c r="D30">
         <v>2425</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>10302425</v>
       </c>
       <c r="B31" t="s">
@@ -963,9 +1223,12 @@
       <c r="D31">
         <v>2425</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>10312425</v>
       </c>
       <c r="B32" t="s">
@@ -977,9 +1240,12 @@
       <c r="D32">
         <v>2425</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>10322425</v>
       </c>
       <c r="B33" t="s">
@@ -991,9 +1257,12 @@
       <c r="D33">
         <v>2425</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>10332425</v>
       </c>
       <c r="B34" t="s">
@@ -1005,9 +1274,12 @@
       <c r="D34">
         <v>2425</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>10342425</v>
       </c>
       <c r="B35" t="s">
@@ -1019,9 +1291,12 @@
       <c r="D35">
         <v>2425</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>10352425</v>
       </c>
       <c r="B36" t="s">
@@ -1033,9 +1308,12 @@
       <c r="D36">
         <v>2425</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>10362425</v>
       </c>
       <c r="B37" t="s">
@@ -1047,9 +1325,12 @@
       <c r="D37">
         <v>2425</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+      <c r="E37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>10372425</v>
       </c>
       <c r="B38" t="s">
@@ -1061,9 +1342,12 @@
       <c r="D38">
         <v>2425</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+      <c r="E38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>10382425</v>
       </c>
       <c r="B39" t="s">
@@ -1075,9 +1359,12 @@
       <c r="D39">
         <v>2425</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+      <c r="E39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>10392425</v>
       </c>
       <c r="B40" t="s">
@@ -1089,9 +1376,12 @@
       <c r="D40">
         <v>2425</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+      <c r="E40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>10402425</v>
       </c>
       <c r="B41" t="s">
@@ -1103,9 +1393,12 @@
       <c r="D41">
         <v>2425</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>10412425</v>
       </c>
       <c r="B42" t="s">
@@ -1117,9 +1410,12 @@
       <c r="D42">
         <v>2425</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>10422425</v>
       </c>
       <c r="B43" t="s">
@@ -1131,9 +1427,12 @@
       <c r="D43">
         <v>2425</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
+      <c r="E43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>10432425</v>
       </c>
       <c r="B44" t="s">
@@ -1145,9 +1444,12 @@
       <c r="D44">
         <v>2425</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>10442425</v>
       </c>
       <c r="B45" t="s">
@@ -1159,9 +1461,12 @@
       <c r="D45">
         <v>2425</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>10452425</v>
       </c>
       <c r="B46" t="s">
@@ -1173,9 +1478,12 @@
       <c r="D46">
         <v>2425</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>10462425</v>
       </c>
       <c r="B47" t="s">
@@ -1187,9 +1495,12 @@
       <c r="D47">
         <v>2425</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
+      <c r="E47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>10472425</v>
       </c>
       <c r="B48" t="s">
@@ -1201,9 +1512,12 @@
       <c r="D48">
         <v>2425</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>10482425</v>
       </c>
       <c r="B49" t="s">
@@ -1215,9 +1529,12 @@
       <c r="D49">
         <v>2425</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
+      <c r="E49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>10492425</v>
       </c>
       <c r="B50" t="s">
@@ -1229,9 +1546,12 @@
       <c r="D50">
         <v>2425</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
+      <c r="E50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>10502425</v>
       </c>
       <c r="B51" t="s">
@@ -1243,9 +1563,12 @@
       <c r="D51">
         <v>2425</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>10512425</v>
       </c>
       <c r="B52" t="s">
@@ -1257,9 +1580,12 @@
       <c r="D52">
         <v>2425</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>10522425</v>
       </c>
       <c r="B53" t="s">
@@ -1271,9 +1597,12 @@
       <c r="D53">
         <v>2425</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>10532425</v>
       </c>
       <c r="B54" t="s">
@@ -1284,6 +1613,9 @@
       </c>
       <c r="D54">
         <v>2425</v>
+      </c>
+      <c r="E54" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/temp_doc/DATA KELAS FIX.xlsx
+++ b/temp_doc/DATA KELAS FIX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/bank_mini/temp_doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F410CF-CD5D-134C-B058-068D6C593D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980BEBDE-1B01-0041-AB7E-BD15C773B798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{AB72E732-1B4D-0449-8A67-D584FA100D85}"/>
   </bookViews>
@@ -690,7 +690,7 @@
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
